--- a/data/formatted/basicdata200506.xlsx
+++ b/data/formatted/basicdata200506.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\petri\Documents\CS-4641\machine-learning-madness\data\formatted\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D141AEA8-8ED9-41B4-B471-B62214CEA69C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B63EE82-7B22-46E3-91C4-BF5507BB824C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2430" yWindow="2420" windowWidth="11520" windowHeight="6000" xr2:uid="{766033C6-011C-4F32-AC64-48F5C4ECD96D}"/>
+    <workbookView xWindow="1140" yWindow="1140" windowWidth="14400" windowHeight="7360" xr2:uid="{766033C6-011C-4F32-AC64-48F5C4ECD96D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>

--- a/data/formatted/basicdata200506.xlsx
+++ b/data/formatted/basicdata200506.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\petri\Documents\CS-4641\machine-learning-madness\data\formatted\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B63EE82-7B22-46E3-91C4-BF5507BB824C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC91427E-054F-4DE6-AEDF-A48B4EF4B5AC}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1140" yWindow="1140" windowWidth="14400" windowHeight="7360" xr2:uid="{766033C6-011C-4F32-AC64-48F5C4ECD96D}"/>
+    <workbookView xWindow="760" yWindow="760" windowWidth="14400" windowHeight="7360" xr2:uid="{766033C6-011C-4F32-AC64-48F5C4ECD96D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>

--- a/data/formatted/basicdata200506.xlsx
+++ b/data/formatted/basicdata200506.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\petri\Documents\CS-4641\machine-learning-madness\data\formatted\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC91427E-054F-4DE6-AEDF-A48B4EF4B5AC}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{394907AA-CC71-4DCE-82F1-A7EB4CC77697}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="760" windowWidth="14400" windowHeight="7360" xr2:uid="{766033C6-011C-4F32-AC64-48F5C4ECD96D}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{766033C6-011C-4F32-AC64-48F5C4ECD96D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -114,199 +114,199 @@
     <t>PersonalFouls</t>
   </si>
   <si>
-    <t>Air Force NCAA</t>
-  </si>
-  <si>
-    <t>Alabama-Birmingham NCAA</t>
-  </si>
-  <si>
-    <t>Alabama NCAA</t>
-  </si>
-  <si>
-    <t>Albany (NY) NCAA</t>
-  </si>
-  <si>
-    <t>Arizona NCAA</t>
-  </si>
-  <si>
-    <t>Arkansas NCAA</t>
-  </si>
-  <si>
-    <t>Belmont NCAA</t>
-  </si>
-  <si>
-    <t>Boston College NCAA</t>
-  </si>
-  <si>
-    <t>Bradley NCAA</t>
-  </si>
-  <si>
-    <t>Bucknell NCAA</t>
-  </si>
-  <si>
-    <t>University of California NCAA</t>
-  </si>
-  <si>
-    <t>Connecticut NCAA</t>
-  </si>
-  <si>
-    <t>Davidson NCAA</t>
-  </si>
-  <si>
-    <t>Duke NCAA</t>
-  </si>
-  <si>
-    <t>Florida NCAA</t>
-  </si>
-  <si>
-    <t>George Mason NCAA</t>
-  </si>
-  <si>
-    <t>George Washington NCAA</t>
-  </si>
-  <si>
-    <t>Georgetown NCAA</t>
-  </si>
-  <si>
-    <t>Gonzaga NCAA</t>
-  </si>
-  <si>
-    <t>Hampton NCAA</t>
-  </si>
-  <si>
-    <t>Illinois NCAA</t>
-  </si>
-  <si>
-    <t>Indiana NCAA</t>
-  </si>
-  <si>
-    <t>Iona NCAA</t>
-  </si>
-  <si>
-    <t>Iowa NCAA</t>
-  </si>
-  <si>
-    <t>Kansas NCAA</t>
-  </si>
-  <si>
-    <t>Kent State NCAA</t>
-  </si>
-  <si>
-    <t>Kentucky NCAA</t>
-  </si>
-  <si>
-    <t>Louisiana State NCAA</t>
-  </si>
-  <si>
-    <t>Marquette NCAA</t>
-  </si>
-  <si>
-    <t>Memphis NCAA</t>
-  </si>
-  <si>
-    <t>Michigan State NCAA</t>
-  </si>
-  <si>
-    <t>Milwaukee NCAA</t>
-  </si>
-  <si>
-    <t>Monmouth NCAA</t>
-  </si>
-  <si>
-    <t>Montana NCAA</t>
-  </si>
-  <si>
-    <t>Murray State NCAA</t>
-  </si>
-  <si>
-    <t>Nevada NCAA</t>
-  </si>
-  <si>
-    <t>North Carolina State NCAA</t>
-  </si>
-  <si>
-    <t>North Carolina-Wilmington NCAA</t>
-  </si>
-  <si>
-    <t>North Carolina NCAA</t>
-  </si>
-  <si>
-    <t>Northern Iowa NCAA</t>
-  </si>
-  <si>
-    <t>Northwestern State NCAA</t>
-  </si>
-  <si>
-    <t>Ohio State NCAA</t>
-  </si>
-  <si>
-    <t>Oklahoma NCAA</t>
-  </si>
-  <si>
-    <t>Oral Roberts NCAA</t>
-  </si>
-  <si>
-    <t>Pacific NCAA</t>
-  </si>
-  <si>
-    <t>Pennsylvania NCAA</t>
-  </si>
-  <si>
-    <t>Pittsburgh NCAA</t>
-  </si>
-  <si>
-    <t>San Diego State NCAA</t>
-  </si>
-  <si>
-    <t>Seton Hall NCAA</t>
-  </si>
-  <si>
-    <t>South Alabama NCAA</t>
-  </si>
-  <si>
-    <t>Southern Illinois NCAA</t>
-  </si>
-  <si>
-    <t>Southern NCAA</t>
-  </si>
-  <si>
-    <t>Syracuse NCAA</t>
-  </si>
-  <si>
-    <t>Tennessee NCAA</t>
-  </si>
-  <si>
-    <t>Texas A&amp;M NCAA</t>
-  </si>
-  <si>
-    <t>Texas NCAA</t>
-  </si>
-  <si>
-    <t>UCLA NCAA</t>
-  </si>
-  <si>
-    <t>Utah State NCAA</t>
-  </si>
-  <si>
-    <t>Villanova NCAA</t>
-  </si>
-  <si>
-    <t>Washington NCAA</t>
-  </si>
-  <si>
-    <t>West Virginia NCAA</t>
-  </si>
-  <si>
-    <t>Wichita State NCAA</t>
-  </si>
-  <si>
-    <t>Winthrop NCAA</t>
-  </si>
-  <si>
-    <t>Wisconsin NCAA</t>
-  </si>
-  <si>
-    <t>Xavier NCAA</t>
+    <t>Air Force</t>
+  </si>
+  <si>
+    <t>Alabama-Birmingham</t>
+  </si>
+  <si>
+    <t>Alabama</t>
+  </si>
+  <si>
+    <t>Albany (NY)</t>
+  </si>
+  <si>
+    <t>Arizona</t>
+  </si>
+  <si>
+    <t>Arkansas</t>
+  </si>
+  <si>
+    <t>Belmont</t>
+  </si>
+  <si>
+    <t>Boston College</t>
+  </si>
+  <si>
+    <t>Bradley</t>
+  </si>
+  <si>
+    <t>Bucknell</t>
+  </si>
+  <si>
+    <t>University of California</t>
+  </si>
+  <si>
+    <t>Connecticut</t>
+  </si>
+  <si>
+    <t>Davidson</t>
+  </si>
+  <si>
+    <t>Duke</t>
+  </si>
+  <si>
+    <t>Florida</t>
+  </si>
+  <si>
+    <t>George Mason</t>
+  </si>
+  <si>
+    <t>George Washington</t>
+  </si>
+  <si>
+    <t>Georgetown</t>
+  </si>
+  <si>
+    <t>Gonzaga</t>
+  </si>
+  <si>
+    <t>Hampton</t>
+  </si>
+  <si>
+    <t>Illinois</t>
+  </si>
+  <si>
+    <t>Indiana</t>
+  </si>
+  <si>
+    <t>Iona</t>
+  </si>
+  <si>
+    <t>Iowa</t>
+  </si>
+  <si>
+    <t>Kansas</t>
+  </si>
+  <si>
+    <t>Kent State</t>
+  </si>
+  <si>
+    <t>Kentucky</t>
+  </si>
+  <si>
+    <t>Louisiana State</t>
+  </si>
+  <si>
+    <t>Marquette</t>
+  </si>
+  <si>
+    <t>Memphis</t>
+  </si>
+  <si>
+    <t>Michigan State</t>
+  </si>
+  <si>
+    <t>Milwaukee</t>
+  </si>
+  <si>
+    <t>Monmouth</t>
+  </si>
+  <si>
+    <t>Montana</t>
+  </si>
+  <si>
+    <t>Murray State</t>
+  </si>
+  <si>
+    <t>Nevada</t>
+  </si>
+  <si>
+    <t>North Carolina State</t>
+  </si>
+  <si>
+    <t>North Carolina-Wilmington</t>
+  </si>
+  <si>
+    <t>North Carolina</t>
+  </si>
+  <si>
+    <t>Northern Iowa</t>
+  </si>
+  <si>
+    <t>Northwestern State</t>
+  </si>
+  <si>
+    <t>Ohio State</t>
+  </si>
+  <si>
+    <t>Oklahoma</t>
+  </si>
+  <si>
+    <t>Oral Roberts</t>
+  </si>
+  <si>
+    <t>Pacific</t>
+  </si>
+  <si>
+    <t>Pennsylvania</t>
+  </si>
+  <si>
+    <t>Pittsburgh</t>
+  </si>
+  <si>
+    <t>San Diego State</t>
+  </si>
+  <si>
+    <t>Seton Hall</t>
+  </si>
+  <si>
+    <t>South Alabama</t>
+  </si>
+  <si>
+    <t>Southern Illinois</t>
+  </si>
+  <si>
+    <t>Southern</t>
+  </si>
+  <si>
+    <t>Syracuse</t>
+  </si>
+  <si>
+    <t>Tennessee</t>
+  </si>
+  <si>
+    <t>Texas A&amp;M</t>
+  </si>
+  <si>
+    <t>Texas</t>
+  </si>
+  <si>
+    <t>UCLA</t>
+  </si>
+  <si>
+    <t>Utah State</t>
+  </si>
+  <si>
+    <t>Villanova</t>
+  </si>
+  <si>
+    <t>Washington</t>
+  </si>
+  <si>
+    <t>West Virginia</t>
+  </si>
+  <si>
+    <t>Wichita State</t>
+  </si>
+  <si>
+    <t>Winthrop</t>
+  </si>
+  <si>
+    <t>Wisconsin</t>
+  </si>
+  <si>
+    <t>Xavier</t>
   </si>
 </sst>
 </file>
